--- a/biology/Zoologie/Anyphaenidae/Anyphaenidae.xlsx
+++ b/biology/Zoologie/Anyphaenidae/Anyphaenidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Anyphaenidae sont une famille d'araignées aranéomorphes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Anyphaenidae sont une famille d'araignées aranéomorphes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Amérique, en Europe, au Moyen-Orient, en Asie centrale, en Asie du Sud, en Asie de l'Est, en Afrique australe et en Océanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Amérique, en Europe, au Moyen-Orient, en Asie centrale, en Asie du Sud, en Asie de l'Est, en Afrique australe et en Océanie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des araignées frondicoles vivant d'ordinaire à la cime des arbres, mais aussi sur la végétation buissonneuse. Cette famille, très similaire aux Clubionidae, s'en distingue par son stigmate trachéen, qui est situé au milieu de l'abdomen et non pas près des filières. Elles pratiquent la chasse à l'affût.
 Leur comportement sexuel est particulier. Face à la compagne désirée, le mâle fait vibrer très rapidement ses pattes, tout en tapant violemment son ventre sur la feuille qui les porte. Cette pratique leur a valu le nom d'araignées bourdonnantes, le son émis étant audible à l'oreille humaine. Une fois formé, le couple s'isole dans une loge de soie au creux d'une feuille.
@@ -574,9 +590,11 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est connue depuis le Paléogène[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est connue depuis le Paléogène.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.5, 04/09/2022)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.5, 04/09/2022) :
 Acanthoceto Mello-Leitão, 1944
 Aljassa Brescovit, 1997
 Amaurobioides O. Pickard-Cambridge, 1883
@@ -693,10 +713,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille a été décrite par Bertkau en 1878.
-Elle rassemble 614 espèces dans 58 genres[1].
+Elle rassemble 614 espèces dans 58 genres.
 </t>
         </is>
       </c>
@@ -725,7 +747,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Bertkau, 1878 : « Versuch einer naturlichen Anordnung der Spinnen, nebst Bemerkungenzueinzelnen Gattungen. » Archiv für Naturgeschichte, vol. 44, p. 351-410.</t>
         </is>
